--- a/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
@@ -3206,10 +3206,10 @@
         <v>3.2</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH13">
         <v>4</v>
@@ -3218,10 +3218,10 @@
         <v>8</v>
       </c>
       <c r="BJ13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3397,10 +3397,10 @@
         <v>3.2</v>
       </c>
       <c r="BF14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH14">
         <v>3</v>
@@ -3409,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="BJ14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
@@ -2510,13 +2510,13 @@
         <v>115</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10">
         <v>3</v>
       </c>
       <c r="S10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T10">
         <v>3.3</v>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -4000,6 +4000,2239 @@
       </c>
       <c r="BK17" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5750535</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45020.79166666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5750534</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45020.79166666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5750536</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45020.875</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5750537</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45020.875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['52', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5750538</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45020.89583333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5750539</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45020.95833333334</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['59', '69', '72']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5750540</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45021.79166666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5750541</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45021.79166666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['4', '75', '90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>16</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5750542</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45021.79166666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CS Emelec</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['5', '90']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5750543</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45021.875</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['3', '6', '56', '68']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5750544</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45021.875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/South America Copa Sudamericana_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -4470,13 +4470,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
         <v>6</v>
       </c>
       <c r="S20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T20" t="n">
         <v>6</v>
@@ -6233,6 +6233,1021 @@
       </c>
       <c r="BK28" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5750545</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45022.79166666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['14', '35', '84', '90']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5750546</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45022.875</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['39', '49', '62', '77']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5750547</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45022.875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['57', '74']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5750548</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45022.875</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['16', '75']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['6', '58']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5750549</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>South America Copa Sudamericana</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45022.875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['45+5', '56']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
